--- a/data/trans_orig/ip32_anio-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4904A4A-562E-4BF5-ACBF-146E304E81AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0774250E-9E25-4B39-BB2A-E09CCBD30D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2AD150E4-ADBF-498A-AD3F-F7E4BB605A40}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F67A65B4-0BA6-4285-AD56-2AE6810A37D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="302">
-  <si>
-    <t>Menores según el año que llegó a andalucía en 2012 (Tasa respuesta: 1,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="303">
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -126,112 +126,112 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>69,91%</t>
+    <t>68,81%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>63,63%</t>
+    <t>63,96%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>44,87%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>66,83%</t>
+    <t>66,48%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>41,06%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>67,63%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>32,94%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>67,86%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>66,94%</t>
+    <t>67,08%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>41,79%</t>
+    <t>33,28%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>73,91%</t>
+    <t>83,85%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>50,89%</t>
+    <t>51,19%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>49,16%</t>
+    <t>65,85%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>68,57%</t>
+    <t>67,31%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>46,05%</t>
+    <t>49,96%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -243,19 +243,19 @@
     <t>14,2%</t>
   </si>
   <si>
-    <t>59,18%</t>
+    <t>58,02%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>41,89%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>61,37%</t>
+    <t>67,07%</t>
   </si>
   <si>
     <t>29,5%</t>
@@ -264,25 +264,28 @@
     <t>20,16%</t>
   </si>
   <si>
-    <t>53,16%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>42,79%</t>
+    <t>41,7%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>62,08%</t>
+    <t>61,97%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>45,05%</t>
+    <t>44,03%</t>
   </si>
   <si>
     <t>27,98%</t>
@@ -291,13 +294,13 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>42,52%</t>
@@ -306,19 +309,19 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>51,62%</t>
+    <t>51,64%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>67,24%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>46,19%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -336,12 +339,12 @@
     <t>22,99%</t>
   </si>
   <si>
+    <t>74,14%</t>
+  </si>
+  <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
     <t>28,19%</t>
   </si>
   <si>
@@ -357,133 +360,133 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>37,01%</t>
+    <t>37,15%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>21,93%</t>
+    <t>23,57%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>26,09%</t>
+    <t>31,68%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>17,13%</t>
+    <t>16,85%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>34,26%</t>
+    <t>38,53%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>35,23%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>21,48%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>41,67%</t>
+    <t>39,58%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>21,7%</t>
+    <t>19,7%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>33,52%</t>
+    <t>34,0%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>36,83%</t>
+    <t>37,98%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>28,03%</t>
+    <t>33,61%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>33,55%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>44,46%</t>
+    <t>42,5%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>24,66%</t>
+    <t>30,78%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>12,51%</t>
+    <t>15,0%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -492,79 +495,82 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>31,29%</t>
+    <t>31,1%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>24,56%</t>
+    <t>22,76%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>29,04%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>41,44%</t>
+    <t>42,82%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>28,77%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a andalucía en 2015 (Tasa respuesta: 1,22%)</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,22%)</t>
   </si>
   <si>
     <t>50,31%</t>
@@ -576,118 +582,112 @@
     <t>35,67%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>84,28%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>47,72%</t>
+    <t>51,51%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>63,91%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>38,17%</t>
+    <t>35,31%</t>
   </si>
   <si>
     <t>15,92%</t>
   </si>
   <si>
-    <t>67,02%</t>
+    <t>63,61%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>34,43%</t>
+    <t>37,26%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>67,91%</t>
+    <t>65,94%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>36,27%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>68,29%</t>
+    <t>65,66%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>83,51%</t>
+    <t>70,9%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>66,43%</t>
+    <t>65,52%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>33,01%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>73,84%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>35,99%</t>
+    <t>36,77%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>82,3%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>21,25%</t>
@@ -708,19 +708,16 @@
     <t>80,54%</t>
   </si>
   <si>
-    <t>58,17%</t>
+    <t>52,01%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>46,54%</t>
+    <t>56,73%</t>
   </si>
   <si>
     <t>21,89%</t>
@@ -732,7 +729,7 @@
     <t>10,78%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>50,54%</t>
   </si>
   <si>
     <t>42,35%</t>
@@ -747,10 +744,10 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -762,130 +759,139 @@
     <t>85,14%</t>
   </si>
   <si>
+    <t>90,73%</t>
+  </si>
+  <si>
     <t>30,95%</t>
   </si>
   <si>
-    <t>69,31%</t>
+    <t>70,05%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>37,8%</t>
+    <t>39,69%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>23,7%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>57,06%</t>
+    <t>50,66%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>25,89%</t>
+    <t>31,34%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>52,39%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>22,4%</t>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>46,32%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>40,23%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>50,7%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>31,26%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>37,16%</t>
+    <t>38,32%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>14,15%</t>
@@ -897,52 +903,49 @@
     <t>14,44%</t>
   </si>
   <si>
-    <t>41,96%</t>
-  </si>
-  <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>22,71%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>20,38%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>34,08%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
+    <t>19,94%</t>
+  </si>
+  <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>34,8%</t>
+    <t>36,69%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>20,48%</t>
+    <t>21,32%</t>
   </si>
 </sst>
 </file>
@@ -953,7 +956,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1049,39 +1052,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1133,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1244,13 +1247,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1259,6 +1255,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1323,19 +1326,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8263B6-2DE6-4818-8C85-C81309F9F8F2}">
-  <dimension ref="A1:Q111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3C6F58-E074-462C-9B66-B5C3AED9C8DE}">
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4647,7 +4670,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4671,13 +4694,13 @@
         <v>654</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4715,13 @@
         <v>674</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -4722,13 +4745,13 @@
         <v>674</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4781,7 @@
         <v>595</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
@@ -4773,13 +4796,13 @@
         <v>595</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4875,13 +4898,13 @@
         <v>654</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4934,7 @@
         <v>904</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
@@ -4926,13 +4949,13 @@
         <v>904</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4970,13 @@
         <v>992</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4977,13 +5000,13 @@
         <v>992</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5113,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="5">
         <v>2015</v>
@@ -5121,7 +5144,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -5136,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -5185,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -5234,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -5283,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5334,13 @@
         <v>701</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
@@ -5326,13 +5349,13 @@
         <v>701</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5383,13 @@
         <v>670</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="M81" s="7">
         <v>1</v>
@@ -5375,13 +5398,13 @@
         <v>670</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -5430,7 +5453,7 @@
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M83" s="7">
         <v>0</v>
@@ -5479,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +5536,7 @@
         <v>12</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M84" s="7">
         <v>0</v>
@@ -5528,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5579,13 @@
         <v>721</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5571,13 +5594,13 @@
         <v>721</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,7 +5634,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -5626,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -5675,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -5724,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5775,13 @@
         <v>821</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -5767,13 +5790,13 @@
         <v>821</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M90" s="7">
         <v>0</v>
@@ -5822,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,7 +5879,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -5871,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -5920,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H94" s="7">
         <v>0</v>
@@ -6007,7 +6030,7 @@
         <v>12</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M94" s="7">
         <v>0</v>
@@ -6022,7 +6045,7 @@
         <v>12</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -6058,7 +6081,7 @@
         <v>12</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -6073,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -6109,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -6124,7 +6147,7 @@
         <v>12</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -6160,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M97" s="7">
         <v>0</v>
@@ -6175,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H98" s="7">
         <v>2</v>
@@ -6205,13 +6228,13 @@
         <v>1351</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M98" s="7">
         <v>2</v>
@@ -6220,13 +6243,13 @@
         <v>1351</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H99" s="7">
         <v>1</v>
@@ -6256,13 +6279,13 @@
         <v>670</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M99" s="7">
         <v>1</v>
@@ -6271,13 +6294,13 @@
         <v>670</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6315,13 @@
         <v>756</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -6307,13 +6330,13 @@
         <v>582</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M100" s="7">
         <v>2</v>
@@ -6322,13 +6345,13 @@
         <v>1338</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6366,13 @@
         <v>1273</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H101" s="7">
         <v>0</v>
@@ -6364,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M101" s="7">
         <v>2</v>
@@ -6373,13 +6396,13 @@
         <v>1273</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6417,13 @@
         <v>654</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -6409,13 +6432,13 @@
         <v>1283</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M102" s="7">
         <v>3</v>
@@ -6424,13 +6447,13 @@
         <v>1937</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6468,13 @@
         <v>1987</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -6460,13 +6483,13 @@
         <v>722</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M103" s="7">
         <v>4</v>
@@ -6475,13 +6498,13 @@
         <v>2708</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P103" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6519,13 @@
         <v>674</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H104" s="7">
         <v>2</v>
@@ -6511,13 +6534,13 @@
         <v>1650</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M104" s="7">
         <v>3</v>
@@ -6526,13 +6549,13 @@
         <v>2324</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P104" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -6562,13 +6585,13 @@
         <v>595</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M105" s="7">
         <v>1</v>
@@ -6577,13 +6600,13 @@
         <v>595</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6621,13 @@
         <v>668</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
@@ -6619,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M106" s="7">
         <v>1</v>
@@ -6628,13 +6651,13 @@
         <v>668</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6672,13 @@
         <v>654</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H107" s="7">
         <v>1</v>
@@ -6664,13 +6687,13 @@
         <v>822</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M107" s="7">
         <v>2</v>
@@ -6679,13 +6702,13 @@
         <v>1475</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6729,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H108" s="7">
         <v>3</v>
@@ -6715,13 +6738,13 @@
         <v>2295</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M108" s="7">
         <v>3</v>
@@ -6730,13 +6753,13 @@
         <v>2295</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P108" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6774,13 @@
         <v>1639</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H109" s="7">
         <v>0</v>
@@ -6772,7 +6795,7 @@
         <v>12</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M109" s="7">
         <v>3</v>
@@ -6781,13 +6804,13 @@
         <v>1639</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6825,13 @@
         <v>1355</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -6817,13 +6840,13 @@
         <v>675</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M110" s="7">
         <v>3</v>
@@ -6832,13 +6855,13 @@
         <v>2031</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,6 +6913,11 @@
       </c>
       <c r="Q111" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6910,8 +6938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D76209C-14E8-4557-A7D9-DC4513272EEF}">
-  <dimension ref="A1:Q111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D6587D-2F38-4045-8458-CEF983A1DB95}">
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6927,7 +6955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8029,7 +8057,7 @@
         <v>721</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -8080,7 +8108,7 @@
         <v>713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
@@ -8817,13 +8845,13 @@
         <v>1403</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8847,13 +8875,13 @@
         <v>1403</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8896,13 @@
         <v>625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8898,13 +8926,13 @@
         <v>625</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,13 +8998,13 @@
         <v>626</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9000,13 +9028,13 @@
         <v>626</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9115,13 @@
         <v>640</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -9102,13 +9130,13 @@
         <v>640</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,13 +9151,13 @@
         <v>671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -9138,13 +9166,13 @@
         <v>1363</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -9153,13 +9181,13 @@
         <v>2034</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9189,13 +9217,13 @@
         <v>640</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -9204,13 +9232,13 @@
         <v>640</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,13 +9253,13 @@
         <v>608</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9255,13 +9283,13 @@
         <v>608</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9342,13 +9370,13 @@
         <v>700</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -9357,13 +9385,13 @@
         <v>700</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9393,13 +9421,13 @@
         <v>617</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -9408,13 +9436,13 @@
         <v>617</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9705,7 +9733,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -9720,7 +9748,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -9754,7 +9782,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -9769,7 +9797,7 @@
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,7 +9831,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -9818,7 +9846,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9852,7 +9880,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -9867,7 +9895,7 @@
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9950,7 +9978,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -9965,7 +9993,7 @@
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,7 +10027,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -10014,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10097,7 +10125,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -10112,7 +10140,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,7 +10223,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -10210,7 +10238,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -10244,7 +10272,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -10259,7 +10287,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,7 +10370,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -10357,7 +10385,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -10406,7 +10434,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10440,7 +10468,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -10455,7 +10483,7 @@
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10489,7 +10517,7 @@
         <v>12</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -10504,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10558,7 +10586,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="5">
         <v>2015</v>
@@ -10576,7 +10604,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
@@ -10600,7 +10628,7 @@
         <v>824</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
@@ -10627,7 +10655,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -10642,7 +10670,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -10651,13 +10679,13 @@
         <v>597</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10672,14 +10700,14 @@
         <v>665</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="H78" s="7">
         <v>0</v>
       </c>
@@ -10693,7 +10721,7 @@
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M78" s="7">
         <v>1</v>
@@ -10702,13 +10730,13 @@
         <v>665</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10723,7 +10751,7 @@
         <v>1287</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
@@ -10738,13 +10766,13 @@
         <v>891</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M79" s="7">
         <v>3</v>
@@ -10753,13 +10781,13 @@
         <v>2178</v>
       </c>
       <c r="O79" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P79" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="Q79" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10780,7 +10808,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -10795,7 +10823,7 @@
         <v>12</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -10810,7 +10838,7 @@
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10831,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -10846,7 +10874,7 @@
         <v>12</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -10861,7 +10889,7 @@
         <v>12</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10882,7 +10910,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -10897,7 +10925,7 @@
         <v>12</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -10912,7 +10940,7 @@
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10933,7 +10961,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -10948,7 +10976,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M83" s="7">
         <v>0</v>
@@ -10963,7 +10991,7 @@
         <v>12</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10978,13 +11006,13 @@
         <v>1087</v>
       </c>
       <c r="E84" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -10999,7 +11027,7 @@
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -11035,7 +11063,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -11050,7 +11078,7 @@
         <v>12</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -11065,7 +11093,7 @@
         <v>12</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -11086,7 +11114,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -11101,7 +11129,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -11116,7 +11144,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -11137,7 +11165,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
@@ -11152,7 +11180,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -11167,7 +11195,7 @@
         <v>12</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -11188,7 +11216,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -11203,7 +11231,7 @@
         <v>12</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -11218,7 +11246,7 @@
         <v>12</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -11239,7 +11267,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -11254,7 +11282,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -11269,7 +11297,7 @@
         <v>12</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -11290,7 +11318,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
@@ -11305,7 +11333,7 @@
         <v>12</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M90" s="7">
         <v>0</v>
@@ -11320,7 +11348,7 @@
         <v>12</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -11341,7 +11369,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H91" s="7">
         <v>0</v>
@@ -11356,7 +11384,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M91" s="7">
         <v>0</v>
@@ -11371,7 +11399,7 @@
         <v>12</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -11392,7 +11420,7 @@
         <v>12</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H92" s="7">
         <v>0</v>
@@ -11407,7 +11435,7 @@
         <v>12</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M92" s="7">
         <v>0</v>
@@ -11422,7 +11450,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -11613,7 +11641,7 @@
         <v>12</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M96" s="7">
         <v>2</v>
@@ -11766,7 +11794,7 @@
         <v>12</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M99" s="7">
         <v>0</v>
@@ -11826,13 +11854,13 @@
         <v>640</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>28</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -11847,13 +11875,13 @@
         <v>671</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H101" s="7">
         <v>3</v>
@@ -11862,13 +11890,13 @@
         <v>1857</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M101" s="7">
         <v>4</v>
@@ -11877,13 +11905,13 @@
         <v>2528</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -11898,13 +11926,13 @@
         <v>1087</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -11913,13 +11941,13 @@
         <v>1464</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="M102" s="7">
         <v>3</v>
@@ -11928,13 +11956,13 @@
         <v>2551</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -11949,13 +11977,13 @@
         <v>608</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -12021,7 +12049,7 @@
         <v>12</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M104" s="7">
         <v>0</v>
@@ -12087,7 +12115,7 @@
         <v>11</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -12117,13 +12145,13 @@
         <v>1141</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M106" s="7">
         <v>2</v>
@@ -12132,13 +12160,13 @@
         <v>1141</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -12174,7 +12202,7 @@
         <v>12</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M107" s="7">
         <v>0</v>
@@ -12225,7 +12253,7 @@
         <v>12</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M108" s="7">
         <v>0</v>
@@ -12276,7 +12304,7 @@
         <v>12</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M109" s="7">
         <v>0</v>
@@ -12327,7 +12355,7 @@
         <v>12</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M110" s="7">
         <v>0</v>
@@ -12394,6 +12422,11 @@
       </c>
       <c r="Q111" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip32_anio-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip32_anio-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0774250E-9E25-4B39-BB2A-E09CCBD30D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC8E4DA-E73A-49C3-B8C3-E902468BAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F67A65B4-0BA6-4285-AD56-2AE6810A37D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DD481E1-AE75-43AC-8DFE-0357B120F5E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="306">
   <si>
     <t>Menores según el año que llegó a Andalucía en 2012 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
@@ -90,7 +90,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -114,7 +114,7 @@
     <t>34,93%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -126,115 +126,115 @@
     <t>18,38%</t>
   </si>
   <si>
-    <t>68,81%</t>
+    <t>69,3%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>63,96%</t>
+    <t>63,81%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>44,87%</t>
+    <t>49,78%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>66,48%</t>
+    <t>65,35%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>41,06%</t>
+    <t>34,2%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>67,63%</t>
+    <t>65,41%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>32,94%</t>
+    <t>40,99%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>67,77%</t>
+    <t>68,5%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>67,08%</t>
+    <t>66,95%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>33,28%</t>
+    <t>40,39%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>83,85%</t>
+    <t>83,64%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>51,19%</t>
+    <t>50,29%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>65,85%</t>
+    <t>65,69%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>67,31%</t>
+    <t>78,57%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -243,19 +243,19 @@
     <t>14,2%</t>
   </si>
   <si>
-    <t>58,02%</t>
+    <t>55,52%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>41,89%</t>
+    <t>48,11%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>67,07%</t>
+    <t>62,24%</t>
   </si>
   <si>
     <t>29,5%</t>
@@ -264,28 +264,28 @@
     <t>20,16%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>41,7%</t>
+    <t>42,71%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>61,97%</t>
+    <t>62,33%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>44,03%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>27,98%</t>
@@ -294,13 +294,13 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
   </si>
   <si>
     <t>42,52%</t>
@@ -309,19 +309,19 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>51,64%</t>
+    <t>52,05%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>67,24%</t>
+    <t>65,81%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>46,19%</t>
+    <t>46,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -345,12 +345,12 @@
     <t>24,76%</t>
   </si>
   <si>
+    <t>76,36%</t>
+  </si>
+  <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
     <t>11,83%</t>
   </si>
   <si>
@@ -360,592 +360,601 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>23,92%</t>
+    <t>24,33%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>21,48%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a Andalucía en 2016 (Tasa respuesta: 1,22%)</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a Andalucía en 2015 (Tasa respuesta: 1,22%)</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
   </si>
   <si>
     <t>5,32%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>23,61%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>30,39%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>19,94%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>36,69%</t>
+    <t>35,73%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>18,92%</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3C6F58-E074-462C-9B66-B5C3AED9C8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA779024-E7B6-4165-9667-0DC29024FBE9}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5585,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -5600,7 +5609,7 @@
         <v>11</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5784,13 @@
         <v>821</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="M89" s="7">
         <v>1</v>
@@ -5790,13 +5799,13 @@
         <v>821</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,10 +6561,10 @@
         <v>143</v>
       </c>
       <c r="P104" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q104" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q104" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6594,13 @@
         <v>595</v>
       </c>
       <c r="J105" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M105" s="7">
         <v>1</v>
@@ -6600,13 +6609,13 @@
         <v>595</v>
       </c>
       <c r="O105" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q105" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6630,13 @@
         <v>668</v>
       </c>
       <c r="E106" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H106" s="7">
         <v>0</v>
@@ -6777,10 +6786,10 @@
         <v>164</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H109" s="7">
         <v>0</v>
@@ -6804,13 +6813,13 @@
         <v>1639</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P109" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,13 +6834,13 @@
         <v>1355</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H110" s="7">
         <v>1</v>
@@ -6840,13 +6849,13 @@
         <v>675</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M110" s="7">
         <v>3</v>
@@ -6855,13 +6864,13 @@
         <v>2031</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P110" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,7 +6926,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6938,7 +6947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D6587D-2F38-4045-8458-CEF983A1DB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10954826-903B-45A0-A311-64BFF4EBFC7F}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6955,7 +6964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8057,7 +8066,7 @@
         <v>721</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -8108,7 +8117,7 @@
         <v>713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
@@ -8845,13 +8854,13 @@
         <v>1403</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -8875,13 +8884,13 @@
         <v>1403</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8905,13 @@
         <v>625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -8926,13 +8935,13 @@
         <v>625</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8998,13 +9007,13 @@
         <v>626</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -9028,13 +9037,13 @@
         <v>626</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9124,13 @@
         <v>640</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -9130,13 +9139,13 @@
         <v>640</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,13 +9160,13 @@
         <v>671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -9166,13 +9175,13 @@
         <v>1363</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -9181,13 +9190,13 @@
         <v>2034</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,13 +9226,13 @@
         <v>640</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -9232,13 +9241,13 @@
         <v>640</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,13 +9262,13 @@
         <v>608</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9283,13 +9292,13 @@
         <v>608</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9370,13 +9379,13 @@
         <v>700</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -9385,13 +9394,13 @@
         <v>700</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9421,13 +9430,13 @@
         <v>617</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -9436,13 +9445,13 @@
         <v>617</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9923,13 +9932,13 @@
         <v>765</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -9938,13 +9947,13 @@
         <v>765</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10070,13 +10079,13 @@
         <v>493</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -10085,13 +10094,13 @@
         <v>493</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10174,7 +10183,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -10189,7 +10198,7 @@
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -10315,13 +10324,13 @@
         <v>524</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -10330,13 +10339,13 @@
         <v>524</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10622,13 @@
         <v>824</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -10634,7 +10643,7 @@
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -10664,13 +10673,13 @@
         <v>597</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -10679,13 +10688,13 @@
         <v>597</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10700,13 +10709,13 @@
         <v>665</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -10730,13 +10739,13 @@
         <v>665</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10751,7 +10760,7 @@
         <v>1287</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>11</v>
@@ -10766,13 +10775,13 @@
         <v>891</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M79" s="7">
         <v>3</v>
@@ -10781,13 +10790,13 @@
         <v>2178</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10838,7 +10847,7 @@
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10889,7 +10898,7 @@
         <v>12</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10940,7 +10949,7 @@
         <v>12</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10991,7 +11000,7 @@
         <v>12</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -11006,13 +11015,13 @@
         <v>1087</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -11021,13 +11030,13 @@
         <v>824</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -11036,13 +11045,13 @@
         <v>1911</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -11093,7 +11102,7 @@
         <v>12</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -11144,7 +11153,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -11195,7 +11204,7 @@
         <v>12</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -11246,7 +11255,7 @@
         <v>12</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -11297,7 +11306,7 @@
         <v>12</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -11348,7 +11357,7 @@
         <v>12</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -11399,7 +11408,7 @@
         <v>12</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -11450,7 +11459,7 @@
         <v>12</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -11524,7 +11533,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H94" s="7">
         <v>1</v>
@@ -11539,7 +11548,7 @@
         <v>11</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M94" s="7">
         <v>1</v>
@@ -11548,13 +11557,13 @@
         <v>824</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -11569,13 +11578,13 @@
         <v>1403</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H95" s="7">
         <v>1</v>
@@ -11584,13 +11593,13 @@
         <v>597</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -11599,13 +11608,13 @@
         <v>2000</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -11620,13 +11629,13 @@
         <v>1291</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H96" s="7">
         <v>0</v>
@@ -11650,13 +11659,13 @@
         <v>1290</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -11671,13 +11680,13 @@
         <v>1288</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H97" s="7">
         <v>2</v>
@@ -11686,13 +11695,13 @@
         <v>1612</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M97" s="7">
         <v>4</v>
@@ -11701,13 +11710,13 @@
         <v>2900</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -11722,13 +11731,13 @@
         <v>1339</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -11737,13 +11746,13 @@
         <v>765</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M98" s="7">
         <v>3</v>
@@ -11752,13 +11761,13 @@
         <v>2104</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -11779,7 +11788,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H99" s="7">
         <v>0</v>
@@ -11809,7 +11818,7 @@
         <v>12</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -11830,7 +11839,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -11839,13 +11848,13 @@
         <v>640</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M100" s="7">
         <v>1</v>
@@ -11854,13 +11863,13 @@
         <v>640</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -11875,13 +11884,13 @@
         <v>671</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H101" s="7">
         <v>3</v>
@@ -11890,13 +11899,13 @@
         <v>1857</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M101" s="7">
         <v>4</v>
@@ -11905,13 +11914,13 @@
         <v>2528</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -11926,13 +11935,13 @@
         <v>1087</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H102" s="7">
         <v>2</v>
@@ -11941,13 +11950,13 @@
         <v>1464</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="M102" s="7">
         <v>3</v>
@@ -11956,13 +11965,13 @@
         <v>2551</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
@@ -11977,13 +11986,13 @@
         <v>608</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="H103" s="7">
         <v>1</v>
@@ -11992,13 +12001,13 @@
         <v>540</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M103" s="7">
         <v>2</v>
@@ -12007,13 +12016,13 @@
         <v>1148</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
@@ -12034,7 +12043,7 @@
         <v>12</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H104" s="7">
         <v>0</v>
@@ -12064,7 +12073,7 @@
         <v>12</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
@@ -12085,7 +12094,7 @@
         <v>12</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H105" s="7">
         <v>1</v>
@@ -12094,13 +12103,13 @@
         <v>700</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M105" s="7">
         <v>1</v>
@@ -12109,13 +12118,13 @@
         <v>700</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
@@ -12136,7 +12145,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H106" s="7">
         <v>2</v>
@@ -12145,13 +12154,13 @@
         <v>1141</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M106" s="7">
         <v>2</v>
@@ -12160,13 +12169,13 @@
         <v>1141</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
@@ -12187,7 +12196,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H107" s="7">
         <v>0</v>
@@ -12217,7 +12226,7 @@
         <v>12</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
@@ -12238,7 +12247,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H108" s="7">
         <v>0</v>
@@ -12268,7 +12277,7 @@
         <v>12</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
@@ -12289,7 +12298,7 @@
         <v>12</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H109" s="7">
         <v>0</v>
@@ -12319,7 +12328,7 @@
         <v>12</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
@@ -12340,7 +12349,7 @@
         <v>12</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H110" s="7">
         <v>0</v>
@@ -12370,7 +12379,7 @@
         <v>12</v>
       </c>
       <c r="Q110" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
@@ -12426,7 +12435,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
